--- a/biology/Zoologie/Balacra_rubrostriata/Balacra_rubrostriata.xlsx
+++ b/biology/Zoologie/Balacra_rubrostriata/Balacra_rubrostriata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Balacra rubrostriata est une espèce de lépidoptères (papillons) de la famille des Erebidae et de la sous-famille des Arctiinae. Décrite par l'entomologiste suédois Per Olof Christopher Aurivillius en 1898, elle se rencontre notamment au Burundi, au Cameroun, en République démocratique du Congo, au Gabon, au Ghana, au Kenya, au Togo, en Ouganda ainsi qu'en Zambie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Balacra rubrostriata est une espèce de lépidoptères (papillons) de la famille des Erebidae et de la sous-famille des Arctiinae. Décrite par l'entomologiste suédois Per Olof Christopher Aurivillius en 1898, elle se rencontre notamment au Burundi, au Cameroun, en République démocratique du Congo, au Gabon, au Ghana, au Kenya, au Togo, en Ouganda ainsi qu'en Zambie.
 </t>
         </is>
       </c>
